--- a/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
@@ -19,21 +19,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Customer</t>
   </si>
   <si>
     <t>Principal</t>
   </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -48,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -56,12 +73,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,29 +458,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1298454</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
+      <c r="C2" s="5">
+        <v>119492</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
+++ b/Excel Data/MahanaAamdanDeposits1YearRegularCustomer.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MahanaAamdanDepositInputter" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="MahanaAamdanDepositInputter" sheetId="1" r:id="rId2"/>
+    <sheet name="MahanaAamdanDepositAuth" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Customer</t>
   </si>
@@ -34,6 +36,24 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>value:1:1:1</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
+  </si>
+  <si>
+    <t>FIQAH</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
   </si>
 </sst>
 </file>
@@ -458,15 +478,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -474,27 +517,71 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1298454</v>
-      </c>
-      <c r="B2" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5">
+        <v>16988322</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5">
         <v>119492</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1007887136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
